--- a/Test/Lawnmower/T2/Sensors_data_1000027.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000027.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8517475330262076</v>
+        <v>0.9968414252978781</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003729455913713354</v>
+        <v>0.0001771213701257274</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2636334682778425</v>
+        <v>0.06842934571404241</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9931579268029073</v>
+        <v>0.9854713774070276</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001911626979118841</v>
+        <v>0.001055077244489606</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4598059608273488</v>
+        <v>0.09413626739609354</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,118 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9668907559919173</v>
+        <v>0.9039902969792735</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001856645865807445</v>
+        <v>0.004955632594313929</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07854316385068461</v>
+        <v>0.3472251878417927</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9893365466425372</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0007743863475796666</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.07034020824724513</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9911243082350563</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0004581273144647017</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2067730337510632</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3228217930327293</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0268862420229559</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.3795996803381632</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9800939565799691</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.001743554864157338</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.132878307452152</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
